--- a/Final/AAAA.xlsx
+++ b/Final/AAAA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\MComp_24\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC22279A-335A-44F5-B007-4F78CC6BC899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15452E53-9D67-4396-B831-70E297468397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD66BE73-CB1B-4745-88D9-BD6F70553C0F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
   <si>
     <t>Nó 1</t>
   </si>
@@ -99,6 +99,21 @@
   <si>
     <t>800mm</t>
   </si>
+  <si>
+    <t>Potencial</t>
+  </si>
+  <si>
+    <t>metade</t>
+  </si>
+  <si>
+    <t>completa</t>
+  </si>
+  <si>
+    <t>Velocidade</t>
+  </si>
+  <si>
+    <t>nó</t>
+  </si>
 </sst>
 </file>
 
@@ -130,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +176,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -174,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -189,13 +228,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5768DDE-DF39-4354-865E-5FE56087E803}">
-  <dimension ref="B2:M52"/>
+  <dimension ref="A2:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,13 +601,13 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
@@ -618,7 +677,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -656,7 +715,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
@@ -702,7 +761,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
@@ -748,7 +807,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="8"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
@@ -784,7 +843,7 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
@@ -830,7 +889,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
@@ -876,7 +935,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -914,7 +973,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="9"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
@@ -923,7 +982,7 @@
         <v>0.68639999999999901</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" ref="E12:I12" si="8">ABS(E11-$H$11)</f>
+        <f t="shared" ref="E12:H12" si="8">ABS(E11-$H$11)</f>
         <v>0.16769999999999996</v>
       </c>
       <c r="F12" s="2">
@@ -960,7 +1019,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
@@ -969,7 +1028,7 @@
         <v>6.9594135599063051E-2</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ref="E13:M13" si="10">ABS(E12/$H$11)</f>
+        <f t="shared" ref="E13:H13" si="10">ABS(E12/$H$11)</f>
         <v>1.7003112674771108E-2</v>
       </c>
       <c r="F13" s="2">
@@ -1006,7 +1065,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="6" t="s">
         <v>5</v>
       </c>
@@ -1042,7 +1101,7 @@
       </c>
     </row>
     <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1088,7 +1147,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1134,7 +1193,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1172,7 +1231,7 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1218,7 +1277,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1264,7 +1323,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="6" t="s">
         <v>5</v>
       </c>
@@ -1300,7 +1359,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
@@ -1346,7 +1405,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1392,7 +1451,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1430,7 +1489,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1476,7 +1535,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="9"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
@@ -1522,7 +1581,7 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="9"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="6" t="s">
         <v>5</v>
       </c>
@@ -1558,7 +1617,7 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="9"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="3" t="s">
         <v>7</v>
       </c>
@@ -1604,7 +1663,7 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="9"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="3" t="s">
         <v>9</v>
       </c>
@@ -1650,7 +1709,7 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -1688,7 +1747,7 @@
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="2" t="s">
         <v>7</v>
       </c>
@@ -1734,7 +1793,7 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
@@ -1780,7 +1839,7 @@
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="6" t="s">
         <v>5</v>
       </c>
@@ -1816,7 +1875,7 @@
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="8"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="3" t="s">
         <v>7</v>
       </c>
@@ -1862,7 +1921,7 @@
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="8"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="3" t="s">
         <v>9</v>
       </c>
@@ -1908,7 +1967,7 @@
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -1946,7 +2005,7 @@
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="8"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="2" t="s">
         <v>7</v>
       </c>
@@ -1992,7 +2051,7 @@
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="8"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
@@ -2038,7 +2097,7 @@
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="8"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="6" t="s">
         <v>5</v>
       </c>
@@ -2074,7 +2133,7 @@
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="8"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="3" t="s">
         <v>7</v>
       </c>
@@ -2120,7 +2179,7 @@
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="8"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="3" t="s">
         <v>9</v>
       </c>
@@ -2166,7 +2225,7 @@
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -2204,7 +2263,7 @@
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="8"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="2" t="s">
         <v>7</v>
       </c>
@@ -2250,7 +2309,7 @@
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="8"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
@@ -2296,7 +2355,7 @@
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="8"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="6" t="s">
         <v>5</v>
       </c>
@@ -2332,7 +2391,7 @@
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="8"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="3" t="s">
         <v>7</v>
       </c>
@@ -2378,7 +2437,7 @@
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="8"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="3" t="s">
         <v>9</v>
       </c>
@@ -2424,7 +2483,7 @@
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -2462,7 +2521,7 @@
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="8"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="2" t="s">
         <v>7</v>
       </c>
@@ -2507,8 +2566,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="8"/>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B49" s="18"/>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
@@ -2553,8 +2612,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="8"/>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B50" s="18"/>
       <c r="C50" s="6" t="s">
         <v>5</v>
       </c>
@@ -2589,8 +2648,8 @@
         <v>2.1368999999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="8"/>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B51" s="18"/>
       <c r="C51" s="3" t="s">
         <v>7</v>
       </c>
@@ -2619,7 +2678,7 @@
         <v>9.1700000000000337E-2</v>
       </c>
       <c r="J51" s="3">
-        <f t="shared" ref="J51:L51" si="61">ABS(J50-$M$50)</f>
+        <f t="shared" ref="J51:K51" si="61">ABS(J50-$M$50)</f>
         <v>6.7999999999996952E-3</v>
       </c>
       <c r="K51" s="3">
@@ -2635,8 +2694,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="8"/>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B52" s="18"/>
       <c r="C52" s="3" t="s">
         <v>9</v>
       </c>
@@ -2681,8 +2740,170 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="8">
+        <v>1</v>
+      </c>
+      <c r="E56" s="8">
+        <v>2</v>
+      </c>
+      <c r="F56" s="8">
+        <v>3</v>
+      </c>
+      <c r="G56" s="8">
+        <v>4</v>
+      </c>
+      <c r="H56" s="8">
+        <v>5</v>
+      </c>
+      <c r="I56" s="8">
+        <v>6</v>
+      </c>
+      <c r="J56" s="8">
+        <v>7</v>
+      </c>
+      <c r="K56" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="10">
+        <v>-11.334</v>
+      </c>
+      <c r="E57" s="10">
+        <v>-9.1765000000000008</v>
+      </c>
+      <c r="F57" s="10">
+        <v>-9.1959999999999997</v>
+      </c>
+      <c r="G57" s="10">
+        <v>-7.2004000000000001</v>
+      </c>
+      <c r="H57" s="10">
+        <v>-7.2709999999999999</v>
+      </c>
+      <c r="I57" s="10">
+        <v>-3.9455</v>
+      </c>
+      <c r="J57" s="10">
+        <v>-4.0529000000000002</v>
+      </c>
+      <c r="K57" s="10">
+        <v>-0.52285999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="12">
+        <v>-11.608000000000001</v>
+      </c>
+      <c r="E58" s="12">
+        <v>-9.4496000000000002</v>
+      </c>
+      <c r="F58" s="12">
+        <v>-9.4728999999999992</v>
+      </c>
+      <c r="G58" s="12">
+        <v>-7.5292000000000003</v>
+      </c>
+      <c r="H58" s="12">
+        <v>-7.4821</v>
+      </c>
+      <c r="I58" s="12">
+        <v>-4.1870000000000003</v>
+      </c>
+      <c r="J58" s="12">
+        <v>-4.1917999999999997</v>
+      </c>
+      <c r="K58" s="12">
+        <v>-0.52417999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="10">
+        <v>2.0844999999999998</v>
+      </c>
+      <c r="E59" s="10">
+        <v>3.9775</v>
+      </c>
+      <c r="F59" s="10">
+        <v>2.6738</v>
+      </c>
+      <c r="G59" s="10">
+        <v>3.8984999999999999</v>
+      </c>
+      <c r="H59" s="10">
+        <v>2.0402999999999998</v>
+      </c>
+      <c r="I59" s="10">
+        <v>6.8658999999999999</v>
+      </c>
+      <c r="J59" s="10">
+        <v>5.8715999999999999</v>
+      </c>
+      <c r="K59" s="10">
+        <v>2.1204999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="12">
+        <v>2.0777000000000001</v>
+      </c>
+      <c r="E60" s="12">
+        <v>3.8460999999999999</v>
+      </c>
+      <c r="F60" s="12">
+        <v>2.6497999999999999</v>
+      </c>
+      <c r="G60" s="12">
+        <v>4.4020000000000001</v>
+      </c>
+      <c r="H60" s="12">
+        <v>2.1046999999999998</v>
+      </c>
+      <c r="I60" s="12">
+        <v>7.9054000000000002</v>
+      </c>
+      <c r="J60" s="12">
+        <v>6.4318</v>
+      </c>
+      <c r="K60" s="12">
+        <v>2.1185</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="A57:B58"/>
+    <mergeCell ref="A59:B60"/>
+    <mergeCell ref="A56:B56"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="B35:B40"/>
     <mergeCell ref="B41:B46"/>
